--- a/class_schedules/ENGLISH  (ENGL).xlsx
+++ b/class_schedules/ENGLISH  (ENGL).xlsx
@@ -14,21 +14,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>140</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="117">
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>247A</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>452</t>
   </si>
   <si>
     <t>995F</t>
@@ -40,25 +94,82 @@
     <t>01</t>
   </si>
   <si>
-    <t>11334</t>
-  </si>
-  <si>
-    <t>12593</t>
-  </si>
-  <si>
-    <t>11335</t>
-  </si>
-  <si>
-    <t>11336</t>
-  </si>
-  <si>
-    <t>13779</t>
-  </si>
-  <si>
-    <t>13578</t>
-  </si>
-  <si>
-    <t>13579</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>14653</t>
+  </si>
+  <si>
+    <t>14654</t>
+  </si>
+  <si>
+    <t>14542</t>
+  </si>
+  <si>
+    <t>14656</t>
+  </si>
+  <si>
+    <t>14810</t>
+  </si>
+  <si>
+    <t>13575</t>
+  </si>
+  <si>
+    <t>14663</t>
+  </si>
+  <si>
+    <t>6793</t>
+  </si>
+  <si>
+    <t>14651</t>
+  </si>
+  <si>
+    <t>14706</t>
+  </si>
+  <si>
+    <t>8921</t>
+  </si>
+  <si>
+    <t>14657</t>
+  </si>
+  <si>
+    <t>13567</t>
+  </si>
+  <si>
+    <t>14664</t>
+  </si>
+  <si>
+    <t>3681</t>
+  </si>
+  <si>
+    <t>14661</t>
+  </si>
+  <si>
+    <t>14658</t>
+  </si>
+  <si>
+    <t>14167</t>
+  </si>
+  <si>
+    <t>14177</t>
+  </si>
+  <si>
+    <t>1458</t>
+  </si>
+  <si>
+    <t>11422</t>
+  </si>
+  <si>
+    <t>14659</t>
+  </si>
+  <si>
+    <t>13110</t>
+  </si>
+  <si>
+    <t>10392</t>
+  </si>
+  <si>
+    <t>10375</t>
   </si>
   <si>
     <t>4</t>
@@ -70,61 +181,190 @@
     <t>F</t>
   </si>
   <si>
-    <t>ESOL Lvl 1 Read, Write, &amp; Gram MWF</t>
-  </si>
-  <si>
-    <t>ESOL Speak, Listen &amp; Culture</t>
-  </si>
-  <si>
-    <t>ESOL Level 2</t>
-  </si>
-  <si>
-    <t>ESOL Level 3 MWF</t>
-  </si>
-  <si>
-    <t>Expository Writing for ESOL</t>
+    <t>Introduction to Shakespeare</t>
+  </si>
+  <si>
+    <t>13 Ways of Looking at Sports</t>
+  </si>
+  <si>
+    <t>Persona and Impersonation</t>
+  </si>
+  <si>
+    <t>Modern British &amp; Irish Fiction</t>
+  </si>
+  <si>
+    <t>Shakespeare in the Colonies</t>
+  </si>
+  <si>
+    <t>Introduction to Book Studies</t>
+  </si>
+  <si>
+    <t>Gendr &amp; Media in Early America</t>
+  </si>
+  <si>
+    <t>Intro Comparative Literature</t>
+  </si>
+  <si>
+    <t>Imagining Borders</t>
+  </si>
+  <si>
+    <t>Intro to Adv Study of Cinema MWF</t>
+  </si>
+  <si>
+    <t>Intro to Advanced Study of Lit</t>
+  </si>
+  <si>
+    <t>Lit /the Scientific Revolution</t>
+  </si>
+  <si>
+    <t>From Frankenstein to Dracula</t>
+  </si>
+  <si>
+    <t>American Gothic</t>
+  </si>
+  <si>
+    <t>Contemporary Literary Theory MWF</t>
+  </si>
+  <si>
+    <t>Migrant Subjects</t>
+  </si>
+  <si>
+    <t>Narratives of the Maternal</t>
+  </si>
+  <si>
+    <t>(Mixed-) Media Studies</t>
+  </si>
+  <si>
+    <t>Applied Literary Studies</t>
+  </si>
+  <si>
+    <t>Teaching &amp; Tutoring Writing</t>
+  </si>
+  <si>
+    <t>Senior Tutorial</t>
+  </si>
+  <si>
+    <t>Sr Seminar: Cog Ling and Lit</t>
+  </si>
+  <si>
+    <t>Honors Project</t>
   </si>
   <si>
     <t>Private Reading -</t>
   </si>
   <si>
-    <t>0830-0950am</t>
-  </si>
-  <si>
     <t>MWF</t>
   </si>
   <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
     <t>0230-0320pm</t>
   </si>
   <si>
+    <t>1100-1150am</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
     <t>Full</t>
   </si>
   <si>
     <t>Half</t>
   </si>
   <si>
-    <t>CBIB</t>
-  </si>
-  <si>
-    <t>1100-1150am</t>
+    <t>0130-0220pm</t>
+  </si>
+  <si>
+    <t>0930-1050am</t>
+  </si>
+  <si>
+    <t>0300-0415pm</t>
+  </si>
+  <si>
+    <t>TBA</t>
   </si>
   <si>
     <t>1000-1050am</t>
   </si>
   <si>
-    <t>TBA</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>SEVE</t>
-  </si>
-  <si>
-    <t>Fekete Larissa</t>
-  </si>
-  <si>
-    <t>Staff Con</t>
+    <t>0330-0420pm</t>
+  </si>
+  <si>
+    <t>0230-0420pm</t>
+  </si>
+  <si>
+    <t>0130-0245pm</t>
+  </si>
+  <si>
+    <t>1100-1215pm</t>
+  </si>
+  <si>
+    <t>0930-1045am</t>
+  </si>
+  <si>
+    <t>0630-0930pm</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Hyman Wendy</t>
+  </si>
+  <si>
+    <t>Colas Santiago</t>
+  </si>
+  <si>
+    <t>Harrison DeSales</t>
+  </si>
+  <si>
+    <t>Walker David</t>
+  </si>
+  <si>
+    <t>Needham Anuradha</t>
+  </si>
+  <si>
+    <t>Zagarell Sandra</t>
+  </si>
+  <si>
+    <t>Skeehan Danielle</t>
+  </si>
+  <si>
+    <t>Milkova Stiliana</t>
+  </si>
+  <si>
+    <t>Suarez Harrod</t>
+  </si>
+  <si>
+    <t>William Patric</t>
+  </si>
+  <si>
+    <t>Tessone Natasha</t>
+  </si>
+  <si>
+    <t>Pence Jeffrey</t>
+  </si>
+  <si>
+    <t>McMillin Tracy</t>
+  </si>
+  <si>
+    <t>McMillin Laurie</t>
+  </si>
+  <si>
+    <t>Bryan Jennifer</t>
+  </si>
+  <si>
+    <t>Johns Gillian</t>
+  </si>
+  <si>
+    <t>Baudot Laura</t>
   </si>
 </sst>
 </file>
@@ -482,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +768,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -563,31 +803,31 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -598,31 +838,31 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -633,31 +873,31 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -668,31 +908,31 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -703,31 +943,31 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,31 +978,661 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
